--- a/Final Result Calculation.xlsx
+++ b/Final Result Calculation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>From Home to station</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,7 +119,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Google Map Recommended route(omit the NA value)</t>
+    <t>Drive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,18 +155,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -360,14 +358,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
@@ -385,33 +380,45 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -420,18 +427,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,6 +443,2847 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Compare</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> Biking with Walking</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+              <a:t>(&lt; 10min) unit: second</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Blue Bike</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>863.62815413405906</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>848.46721374045796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>680.46134758364281</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>759.1522479961136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>873.05611111111057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Walking</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:tint val="77000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>953.67336680000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>953.44221110000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>781.92708330000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1109.796875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>941.11055280000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="501179344"/>
+        <c:axId val="501178168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="501179344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501178168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="501178168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501179344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Compare Biking with Driving</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> and Public Transit</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>(10min to </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+              <a:t>20min</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>) unit:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+              <a:t> second</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Biking</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:shade val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$7:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>988.54730468749813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>968.52057534435585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1010.146187739462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1367.4421516754801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1177.0139658301159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Public Transit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$7:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1760.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2051.0813953488373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1809.675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2300.0402010050252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1536.5988372093022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Driving</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:tint val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>543.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>629.83500000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>513.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>689.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="501175424"/>
+        <c:axId val="501175816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="501175424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501175816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="501175816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501175424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Compare Biking with </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Driving and Public Transit</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>(&gt; 20min) unit: second</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Biking</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:shade val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$12:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1815.30403755868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10908.53454954954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2051.565531697338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2686.3961332999984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1885.653457101658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Public Transit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$12:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1805.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1094.145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1208.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1420.9590643274853</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2188.1666666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Driving</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:tint val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$12:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>573.04999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>318.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>579.28499999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>578.39499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="501176600"/>
+        <c:axId val="501176992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="501176600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501176992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="501176992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501176600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,10 +3549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -729,34 +3565,37 @@
     <col min="7" max="7" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1">
@@ -769,17 +3608,20 @@
       <c r="E2" s="1">
         <v>321.85500000000002</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="12">
         <f>SUM(C2:E2)</f>
         <v>863.62815413405906</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="16">
         <v>953.67336680000005</v>
       </c>
+      <c r="H2" s="16">
+        <v>953.67336680000005</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
@@ -792,17 +3634,20 @@
       <c r="E3" s="1">
         <v>255.2</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="12">
         <f>SUM(C3:E3)</f>
         <v>848.46721374045796</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="17">
         <v>953.44221110000001</v>
       </c>
+      <c r="H3" s="17">
+        <v>953.44221110000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1">
@@ -815,17 +3660,20 @@
       <c r="E4" s="1">
         <v>171.1</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="12">
         <f>SUM(C4:E4)</f>
         <v>680.46134758364281</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="17">
         <v>781.92708330000005</v>
       </c>
+      <c r="H4" s="17">
+        <v>781.92708330000005</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="22"/>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
@@ -838,105 +3686,126 @@
       <c r="E5" s="1">
         <v>171.1</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="12">
         <f t="shared" ref="F5:F16" si="0">SUM(C5:E5)</f>
         <v>759.1522479961136</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="17">
         <v>1109.796875</v>
       </c>
+      <c r="H5" s="17">
+        <v>1109.796875</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>321.85500000000002</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f>5.82726851851851*60</f>
         <v>349.63611111111061</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>201.565</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="12">
         <f t="shared" si="0"/>
         <v>873.05611111111057</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="18">
         <v>941.11055280000005</v>
       </c>
+      <c r="H6" s="18">
+        <v>941.11055280000005</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>164.47499999999999</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f>10.8122884114583*60</f>
         <v>648.73730468749807</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>175.33500000000001</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>988.54730468749813</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="19">
+        <v>1760.23</v>
+      </c>
+      <c r="H7" s="19">
+        <v>543.97</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="11">
         <v>146.035</v>
       </c>
       <c r="D8" s="1">
         <f>11.1629540340726*60</f>
         <v>669.77724204435594</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="11">
         <v>152.70833329999999</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="12">
         <f t="shared" si="0"/>
         <v>968.52057534435585</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="20">
+        <v>2051.0813953488373</v>
+      </c>
+      <c r="H8" s="20">
+        <v>629.83500000000004</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="11">
         <v>214.77</v>
       </c>
       <c r="D9" s="1">
         <f>10.3340197956577*60</f>
         <v>620.04118773946198</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="11">
         <v>175.33500000000001</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
         <v>1010.146187739462</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="20">
+        <v>1809.675</v>
+      </c>
+      <c r="H9" s="20">
+        <v>513.23</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1">
@@ -946,142 +3815,177 @@
         <f>15.789035861258*60</f>
         <v>947.34215167547995</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="11">
         <v>98.245000000000005</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="12">
         <f t="shared" si="0"/>
         <v>1367.4421516754801</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="20">
+        <v>2300.0402010050252</v>
+      </c>
+      <c r="H10" s="20">
+        <v>689.375</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="11">
         <v>152.70833329999999</v>
       </c>
       <c r="D11" s="1">
         <f>14.1495105421686*60</f>
         <v>848.97063253011595</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="11">
         <v>175.33500000000001</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="12">
         <f t="shared" si="0"/>
         <v>1177.0139658301159</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="21">
+        <v>1536.5988372093022</v>
+      </c>
+      <c r="H11" s="21">
+        <v>500.13</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>171.1</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f>23.321400625978*60</f>
         <v>1399.28403755868</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>244.92</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="13">
         <f t="shared" si="0"/>
         <v>1815.30403755868</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="19">
+        <v>1805.25</v>
+      </c>
+      <c r="H12" s="20">
+        <v>573.04999999999995</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="11">
         <v>146.035</v>
       </c>
       <c r="D13" s="1">
         <f>176.534159159159*60</f>
         <v>10592.04954954954</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="11">
         <v>170.45</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="12">
         <f t="shared" si="0"/>
         <v>10908.53454954954</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="20">
+        <v>1094.145</v>
+      </c>
+      <c r="H13" s="20">
+        <v>445.29</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="11">
         <v>192.80500000000001</v>
       </c>
       <c r="D14" s="1">
         <f>60*21.7110088616223</f>
         <v>1302.660531697338</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="11">
         <v>556.1</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>2051.565531697338</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="20">
+        <v>1208.1400000000001</v>
+      </c>
+      <c r="H14" s="20">
+        <v>318.62</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="11">
         <v>159.35499999999999</v>
       </c>
       <c r="D15" s="1">
         <f>60*39.5722133333333</f>
         <v>2374.3327999999983</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="11">
         <v>152.70833329999999</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="12">
         <f t="shared" si="0"/>
         <v>2686.3961332999984</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="20">
+        <v>1420.9590643274853</v>
+      </c>
+      <c r="H15" s="20">
+        <v>579.28499999999997</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>171.1</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <f>25.6536409516943*60</f>
         <v>1539.218457101658</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>175.33500000000001</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="14">
         <f t="shared" si="0"/>
         <v>1885.653457101658</v>
       </c>
-      <c r="G16" s="12"/>
+      <c r="G16" s="21">
+        <v>2188.1666666666665</v>
+      </c>
+      <c r="H16" s="21">
+        <v>578.39499999999998</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1095,5 +3999,6 @@
   <ignoredErrors>
     <ignoredError sqref="B6" numberStoredAsText="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Final Result Calculation.xlsx
+++ b/Final Result Calculation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>From Home to station</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,18 @@
     <t>Transit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -175,27 +187,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -278,156 +275,59 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -554,6 +454,72 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$I$2:$I$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>244.56328598697837</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>244.43739862302499</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>148.20689999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>157.5361</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>340.12520000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$I$2:$I$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>244.56328598697837</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>244.43739862302499</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>148.20689999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>157.5361</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>340.12520000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$F$2:$F$6</c:f>
@@ -597,9 +563,75 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$2:$G$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>396.57350000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>396.57350000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>169.8871</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>185.4117</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>323.66230000000002</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$2:$G$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>396.57350000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>396.57350000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>169.8871</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>185.4117</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>323.66230000000002</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$6</c:f>
+              <c:f>Sheet1!$H$2:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -631,11 +663,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="501179344"/>
-        <c:axId val="501178168"/>
+        <c:axId val="505687664"/>
+        <c:axId val="505688056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="501179344"/>
+        <c:axId val="505687664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +709,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501178168"/>
+        <c:crossAx val="505688056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -685,7 +717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501178168"/>
+        <c:axId val="505688056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +768,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501179344"/>
+        <c:crossAx val="505687664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -939,6 +971,72 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$7:$G$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>118.5132</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>63.122149999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>199.88800000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>61.857149999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>92.131889999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$7:$G$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>118.5132</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>63.122149999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>199.88800000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>61.857149999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>92.131889999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$F$7:$F$11</c:f>
@@ -980,9 +1078,75 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$I$7:$I$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>171.9639</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>224.49709999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>190.32509999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>559.10910000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>395.6721</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$I$7:$I$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>171.9639</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>224.49709999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>190.32509999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>559.10910000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>395.6721</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$7:$G$11</c:f>
+              <c:f>Sheet1!$H$7:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1023,9 +1187,75 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$K$7:$K$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>160.70089999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>182.07050000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>102.8458</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>114.92700000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>115.413</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$K$7:$K$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>160.70089999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>182.07050000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>102.8458</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>114.92700000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>115.413</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$7:$H$11</c:f>
+              <c:f>Sheet1!$J$7:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1057,11 +1287,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="501175424"/>
-        <c:axId val="501175816"/>
+        <c:axId val="505691192"/>
+        <c:axId val="505683744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="501175424"/>
+        <c:axId val="505691192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,7 +1333,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501175816"/>
+        <c:crossAx val="505683744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1111,7 +1341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501175816"/>
+        <c:axId val="505683744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,7 +1392,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501175424"/>
+        <c:crossAx val="505691192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1354,6 +1584,72 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$12:$G$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>367.01929799999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7777.2757099999999</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>85.498230000000007</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>75.927090000000007</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>109.688</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$12:$G$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>367.01929799999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7777.2757099999999</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>85.498230000000007</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>75.927090000000007</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>109.688</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$F$12:$F$16</c:f>
@@ -1395,9 +1691,75 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$I$12:$I$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>127.327</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>212.001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>180.21299999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>474.93669999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>314.7878</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$I$12:$I$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>127.327</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>212.001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>180.21299999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>474.93669999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>314.7878</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$12:$G$16</c:f>
+              <c:f>Sheet1!$H$12:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1438,9 +1800,75 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$K$12:$K$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>185.78</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>77.547300000000007</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>72.032399999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>124.51479999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>165.58850000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$K$12:$K$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>185.78</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>77.547300000000007</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>72.032399999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>124.51479999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>165.58850000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$12:$H$16</c:f>
+              <c:f>Sheet1!$J$12:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1472,11 +1900,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="501176600"/>
-        <c:axId val="501176992"/>
+        <c:axId val="510602048"/>
+        <c:axId val="510602440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="501176600"/>
+        <c:axId val="510602048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1518,7 +1946,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501176992"/>
+        <c:crossAx val="510602440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1526,7 +1954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501176992"/>
+        <c:axId val="510602440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,7 +2005,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501176600"/>
+        <c:crossAx val="510602048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3195,13 +3623,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
@@ -3225,13 +3653,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
@@ -3255,13 +3683,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
@@ -3549,10 +3977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3561,41 +3989,53 @@
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="44.625" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="K1" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1">
@@ -3612,16 +4052,23 @@
         <f>SUM(C2:E2)</f>
         <v>863.62815413405906</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="12">
+        <v>396.57350000000002</v>
+      </c>
+      <c r="H2" s="1">
         <v>953.67336680000005</v>
       </c>
-      <c r="H2" s="16">
+      <c r="I2" s="1">
+        <v>244.56328598697837</v>
+      </c>
+      <c r="J2" s="1">
         <v>953.67336680000005</v>
       </c>
+      <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
@@ -3638,16 +4085,23 @@
         <f>SUM(C3:E3)</f>
         <v>848.46721374045796</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="12">
+        <v>396.57350000000002</v>
+      </c>
+      <c r="H3" s="1">
         <v>953.44221110000001</v>
       </c>
-      <c r="H3" s="17">
+      <c r="I3" s="1">
+        <v>244.43739862302499</v>
+      </c>
+      <c r="J3" s="1">
         <v>953.44221110000001</v>
       </c>
+      <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1">
@@ -3664,16 +4118,23 @@
         <f>SUM(C4:E4)</f>
         <v>680.46134758364281</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="12">
+        <v>169.8871</v>
+      </c>
+      <c r="H4" s="1">
         <v>781.92708330000005</v>
       </c>
-      <c r="H4" s="17">
+      <c r="I4" s="1">
+        <v>148.20689999999999</v>
+      </c>
+      <c r="J4" s="1">
         <v>781.92708330000005</v>
       </c>
+      <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
@@ -3690,122 +4151,163 @@
         <f t="shared" ref="F5:F16" si="0">SUM(C5:E5)</f>
         <v>759.1522479961136</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="12">
+        <v>185.4117</v>
+      </c>
+      <c r="H5" s="1">
         <v>1109.796875</v>
       </c>
-      <c r="H5" s="17">
+      <c r="I5" s="1">
+        <v>157.5361</v>
+      </c>
+      <c r="J5" s="1">
         <v>1109.796875</v>
       </c>
+      <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>321.85500000000002</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>5.82726851851851*60</f>
         <v>349.63611111111061</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>201.565</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" si="0"/>
         <v>873.05611111111057</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="12">
+        <v>323.66230000000002</v>
+      </c>
+      <c r="H6" s="1">
         <v>941.11055280000005</v>
       </c>
-      <c r="H6" s="18">
+      <c r="I6" s="1">
+        <v>340.12520000000001</v>
+      </c>
+      <c r="J6" s="1">
         <v>941.11055280000005</v>
       </c>
+      <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>164.47499999999999</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <f>10.8122884114583*60</f>
         <v>648.73730468749807</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>175.33500000000001</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <f t="shared" si="0"/>
         <v>988.54730468749813</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="12">
+        <v>118.5132</v>
+      </c>
+      <c r="H7" s="4">
         <v>1760.23</v>
       </c>
-      <c r="H7" s="19">
+      <c r="I7" s="1">
+        <v>171.9639</v>
+      </c>
+      <c r="J7" s="1">
         <v>543.97</v>
       </c>
+      <c r="K7" s="8">
+        <v>160.70089999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="3">
         <v>146.035</v>
       </c>
       <c r="D8" s="1">
         <f>11.1629540340726*60</f>
         <v>669.77724204435594</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="3">
         <v>152.70833329999999</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
         <v>968.52057534435585</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="12">
+        <v>63.122149999999998</v>
+      </c>
+      <c r="H8" s="4">
         <v>2051.0813953488373</v>
       </c>
-      <c r="H8" s="20">
+      <c r="I8" s="1">
+        <v>224.49709999999999</v>
+      </c>
+      <c r="J8" s="1">
         <v>629.83500000000004</v>
       </c>
+      <c r="K8" s="8">
+        <v>182.07050000000001</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="3">
         <v>214.77</v>
       </c>
       <c r="D9" s="1">
         <f>10.3340197956577*60</f>
         <v>620.04118773946198</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="3">
         <v>175.33500000000001</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="0"/>
         <v>1010.146187739462</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="12">
+        <v>199.88800000000001</v>
+      </c>
+      <c r="H9" s="4">
         <v>1809.675</v>
       </c>
-      <c r="H9" s="20">
+      <c r="I9" s="1">
+        <v>190.32509999999999</v>
+      </c>
+      <c r="J9" s="1">
         <v>513.23</v>
       </c>
+      <c r="K9" s="8">
+        <v>102.8458</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1">
@@ -3815,155 +4317,209 @@
         <f>15.789035861258*60</f>
         <v>947.34215167547995</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="3">
         <v>98.245000000000005</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
         <v>1367.4421516754801</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="12">
+        <v>61.857149999999997</v>
+      </c>
+      <c r="H10" s="4">
         <v>2300.0402010050252</v>
       </c>
-      <c r="H10" s="20">
+      <c r="I10" s="4">
+        <v>559.10910000000001</v>
+      </c>
+      <c r="J10" s="4">
         <v>689.375</v>
       </c>
+      <c r="K10" s="9">
+        <v>114.92700000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="3">
         <v>152.70833329999999</v>
       </c>
       <c r="D11" s="1">
         <f>14.1495105421686*60</f>
         <v>848.97063253011595</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="3">
         <v>175.33500000000001</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
         <v>1177.0139658301159</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="12">
+        <v>92.131889999999999</v>
+      </c>
+      <c r="H11" s="4">
         <v>1536.5988372093022</v>
       </c>
-      <c r="H11" s="21">
+      <c r="I11" s="4">
+        <v>395.6721</v>
+      </c>
+      <c r="J11" s="4">
         <v>500.13</v>
       </c>
+      <c r="K11" s="9">
+        <v>115.413</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>171.1</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <f>23.321400625978*60</f>
         <v>1399.28403755868</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>244.92</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <f t="shared" si="0"/>
         <v>1815.30403755868</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="12">
+        <v>367.01929799999999</v>
+      </c>
+      <c r="H12" s="4">
         <v>1805.25</v>
       </c>
-      <c r="H12" s="20">
+      <c r="I12" s="4">
+        <v>127.327</v>
+      </c>
+      <c r="J12" s="4">
         <v>573.04999999999995</v>
       </c>
+      <c r="K12" s="9">
+        <v>185.78</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="3">
         <v>146.035</v>
       </c>
       <c r="D13" s="1">
         <f>176.534159159159*60</f>
         <v>10592.04954954954</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="3">
         <v>170.45</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="0"/>
+        <f>SUM(C13:E13)</f>
         <v>10908.53454954954</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="12">
+        <v>7777.2757099999999</v>
+      </c>
+      <c r="H13" s="4">
         <v>1094.145</v>
       </c>
-      <c r="H13" s="20">
+      <c r="I13" s="4">
+        <v>212.001</v>
+      </c>
+      <c r="J13" s="4">
         <v>445.29</v>
       </c>
+      <c r="K13" s="9">
+        <v>77.547300000000007</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="3">
         <v>192.80500000000001</v>
       </c>
       <c r="D14" s="1">
         <f>60*21.7110088616223</f>
         <v>1302.660531697338</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="3">
         <v>556.1</v>
       </c>
       <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>2051.565531697338</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="12">
+        <v>85.498230000000007</v>
+      </c>
+      <c r="H14" s="4">
         <v>1208.1400000000001</v>
       </c>
-      <c r="H14" s="20">
+      <c r="I14" s="4">
+        <v>180.21299999999999</v>
+      </c>
+      <c r="J14" s="4">
         <v>318.62</v>
       </c>
+      <c r="K14" s="9">
+        <v>72.032399999999996</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="3">
         <v>159.35499999999999</v>
       </c>
       <c r="D15" s="1">
         <f>60*39.5722133333333</f>
         <v>2374.3327999999983</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="3">
         <v>152.70833329999999</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="0"/>
         <v>2686.3961332999984</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="12">
+        <v>75.927090000000007</v>
+      </c>
+      <c r="H15" s="4">
         <v>1420.9590643274853</v>
       </c>
-      <c r="H15" s="20">
+      <c r="I15" s="4">
+        <v>474.93669999999997</v>
+      </c>
+      <c r="J15" s="4">
         <v>579.28499999999997</v>
       </c>
+      <c r="K15" s="9">
+        <v>124.51479999999999</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="2">
@@ -3976,16 +4532,31 @@
       <c r="E16" s="2">
         <v>175.33500000000001</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="16">
         <f t="shared" si="0"/>
         <v>1885.653457101658</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="16">
+        <v>109.688</v>
+      </c>
+      <c r="H16" s="17">
         <v>2188.1666666666665</v>
       </c>
-      <c r="H16" s="21">
+      <c r="I16" s="17">
+        <v>314.7878</v>
+      </c>
+      <c r="J16" s="17">
         <v>578.39499999999998</v>
       </c>
+      <c r="K16" s="10">
+        <v>165.58850000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="5:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
